--- a/StudentData/Assessments/Unit5/5.1.3/sunshine_high.xlsx
+++ b/StudentData/Assessments/Unit5/5.1.3/sunshine_high.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc.sharepoint.com/sites/SophiaAcademicsCD/PW/Business Data Analytics/Assessments/Assessment Data/Unit 4/4.1.3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit5/5.1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35890426-6607-4E9E-9886-02B9243A6907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{76CDC2BB-84CE-4E58-813B-FD26E51A6AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EB21F6AA-B6DC-450D-9103-247844816C73}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{EB21F6AA-B6DC-450D-9103-247844816C73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,14 +44,14 @@
     <t>Weekly_Extracurricular</t>
   </si>
   <si>
-    <t xml:space="preserve"> Average_Score </t>
+    <t>Average_Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,9 +436,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.5">
+    <row r="1" spans="1:3" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -460,7 +460,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -471,7 +471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -482,7 +482,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -493,7 +493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -504,7 +504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -515,7 +515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -526,7 +526,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -537,7 +537,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -548,7 +548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -559,7 +559,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -570,7 +570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -581,7 +581,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -592,7 +592,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -603,7 +603,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -614,7 +614,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -625,7 +625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -636,7 +636,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -647,7 +647,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -658,7 +658,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -675,15 +675,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -947,6 +938,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -962,13 +962,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F19B2AD9-2C15-4B90-B6B0-3A81A2A7FF4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB659108-7732-4244-AC7C-487FF8FD3DE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB659108-7732-4244-AC7C-487FF8FD3DE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F19B2AD9-2C15-4B90-B6B0-3A81A2A7FF4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7912D-A281-4682-A83F-2EDB6F5009C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7912D-A281-4682-A83F-2EDB6F5009C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>